--- a/Consultant_Active_Reports/Active_Candidates_Sam_Rudston.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Sam_Rudston.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,11 +546,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>3rd Interview</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45989</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="5">
@@ -653,7 +653,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Gregory West</t>
+          <t>Gino Lucia</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -662,26 +662,26 @@
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45980</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>786</v>
+        <v>803</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LanceDB</t>
+          <t>Orca Ai</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive SF</t>
+          <t>Enterprise Account Executive Greece x2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Gino Lucia</t>
+          <t>Nikolaos Papadopoulos</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -690,12 +690,12 @@
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45981</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -704,12 +704,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive Greece x2</t>
+          <t>Enterprise Account Executive Singapore x2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Nikolaos Papadopoulos</t>
+          <t>Jodie Yao</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45993</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="11">
@@ -737,7 +737,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jodie Yao</t>
+          <t>Gabriel Wong</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -746,90 +746,62 @@
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45995</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Orca Ai</t>
+          <t>Dash0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive Singapore x2</t>
+          <t>Dash0 NYC SDR</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Gabriel Wong</t>
+          <t>Ryan Wandey</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45992</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>805</v>
+        <v>828</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Dash0</t>
+          <t>Laurel</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Dash0 NYC SDR</t>
+          <t>BDR New York</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Ryan Wandey</t>
+          <t>Junaid Farooqui</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45972</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>828</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Laurel</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>BDR New York</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Junaid Farooqui</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>CV Sent</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="n">
         <v>45987</v>
       </c>
     </row>

--- a/Consultant_Active_Reports/Active_Candidates_Sam_Rudston.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Sam_Rudston.xlsx
@@ -541,16 +541,16 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tyler Drago</t>
+          <t>Cesar Castillo</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3rd Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45992</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="5">
@@ -569,7 +569,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cesar Castillo</t>
+          <t>JJ Valderrama</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -597,16 +597,16 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>JJ Valderrama</t>
+          <t>Tyler Drago</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>3rd Interview</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45986</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="7">
@@ -709,7 +709,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jodie Yao</t>
+          <t>Gabriel Wong</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45995</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="11">
@@ -737,7 +737,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Gabriel Wong</t>
+          <t>Jodie Yao</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="12">

--- a/Consultant_Active_Reports/Active_Candidates_Sam_Rudston.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Sam_Rudston.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,32 +462,32 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>656</v>
+        <v>721</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>UnifyApps</t>
+          <t>Rox</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UnifyApps - US Enterprise AE</t>
+          <t>ENT AE East</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Darrell Van Dyken</t>
+          <t>Alex Harvey</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -496,23 +496,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ENT AE East</t>
+          <t>ENT AE Austin</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Alex Harvey</t>
+          <t>Nicholas Garcia</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>2nd Interview</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -521,17 +521,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ENT AE Austin</t>
+          <t>ENT AE San Fran</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Nicholas Garcia</t>
+          <t>Daniel Rodriquez</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
@@ -701,12 +701,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Stephen Burd</t>
+          <t>Rob Zhu</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
@@ -726,12 +726,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Rob Zhu</t>
+          <t>Stephen Burd</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3rd Interview</t>
+          <t>4th Interview</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
@@ -1007,6 +1007,56 @@
       <c r="E23" t="inlineStr">
         <is>
           <t>1st Interview</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>859</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Orca Ai</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Director of APAC</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Vivaan Seth</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>CV Sent</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>866</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CyCognito</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>BDR US</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Tyler Drago</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
